--- a/数据整理/stocks/A股/北交所/835640-富士达.xlsx
+++ b/数据整理/stocks/A股/北交所/835640-富士达.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -659,7 +660,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,17 +671,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -690,13 +711,293 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>014283</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏北交所创新中小企业精选两年定开混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>68.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2552</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014294</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方北交所精选两年定开混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>67.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2550</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014269</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实北交所精选两年定期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2018</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014275</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达北交所精选两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>67.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1499</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014270</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实北交所精选两年定期混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014276</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达北交所精选两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>67.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>4</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.39</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/北交所/835640-富士达.xlsx
+++ b/数据整理/stocks/A股/北交所/835640-富士达.xlsx
@@ -3,50 +3,394 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="32700" windowHeight="16860" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
+  <fonts count="24">
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
       <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
       <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -70,26 +414,319 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -442,7 +1079,6 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -452,205 +1088,65 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="3" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>014283</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏北交所创新中小企业精选两年定开混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>52.55</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1719</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.93</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="3" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>014269</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>嘉实北交所精选两年定期混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>87.43</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1490</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>014294</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>南方北交所精选两年定开混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>33.00</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0482</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>014270</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>嘉实北交所精选两年定期混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>87.43</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0191</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.39</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -662,51 +1158,51 @@
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>基金规模</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -744,7 +1240,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -782,7 +1278,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -820,7 +1316,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -858,7 +1354,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -896,7 +1392,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -944,28 +1440,48 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="4"/>
   <sheetData>
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -975,14 +1491,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.93</v>
+          <t>014283</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏北交所创新中小企业精选两年定开混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>52.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1719</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -991,17 +1529,115 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.39</v>
+          <t>014269</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实北交所精选两年定期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1490</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014294</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方北交所精选两年定开混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>33.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014270</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实北交所精选两年定期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/北交所/835640-富士达.xlsx
+++ b/数据整理/stocks/A股/北交所/835640-富士达.xlsx
@@ -7,8 +7,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -1088,7 +1089,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1119,14 +1120,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.93</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="3">
@@ -1135,13 +1136,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>4</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.39</v>
       </c>
     </row>
@@ -1151,6 +1168,290 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>014283</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏北交所创新中小企业精选两年定开混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>71.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2564</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014294</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方北交所精选两年定开混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2556</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014269</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实北交所精选两年定期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1695</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014275</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达北交所精选两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>61.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1196</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014270</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实北交所精选两年定期混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014276</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达北交所精选两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>61.75</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1434,7 +1735,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/北交所/835640-富士达.xlsx
+++ b/数据整理/stocks/A股/北交所/835640-富士达.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -1089,7 +1090,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1120,14 +1121,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>0.86</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="3">
@@ -1136,14 +1137,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.93</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="4">
@@ -1152,13 +1153,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>4</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.39</v>
       </c>
     </row>
@@ -1168,6 +1185,442 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>014294</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方北交所精选两年定开混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2637</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014283</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏北交所创新中小企业精选两年定开混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2636</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014269</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实北交所精选两年定期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1744</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014275</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达北交所精选两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>70.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1478</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>016307</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城北交所精选两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>43.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0565</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014663</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国创新发展两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014276</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达北交所精选两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>70.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014270</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实北交所精选两年定期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>016308</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城北交所精选两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>43.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014664</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国创新发展两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1451,7 +1904,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1735,7 +2188,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
